--- a/Audit/Modèle-audit-SEO.xlsx
+++ b/Audit/Modèle-audit-SEO.xlsx
@@ -5784,7 +5784,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="D23" sqref="D23" activeCellId="0"/>
+      <selection activeCell="A15" sqref="A15" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5909,7 +5909,7 @@
       <c r="R3" s="290"/>
       <c r="S3" s="288"/>
     </row>
-    <row r="4" ht="15">
+    <row r="4">
       <c r="A4" s="547" t="s">
         <v>15</v>
       </c>
@@ -5940,7 +5940,7 @@
       <c r="R4" s="290"/>
       <c r="S4" s="288"/>
     </row>
-    <row r="5" ht="15">
+    <row r="5">
       <c r="A5" s="548"/>
       <c r="B5" s="460"/>
       <c r="C5" s="476"/>
@@ -5984,7 +5984,7 @@
       <c r="R6" s="290"/>
       <c r="S6" s="288"/>
     </row>
-    <row r="7" ht="15">
+    <row r="7">
       <c r="A7" s="768" t="s">
         <v>15</v>
       </c>
@@ -6036,7 +6036,7 @@
       <c r="R8" s="308"/>
       <c r="S8" s="307"/>
     </row>
-    <row r="9" ht="15">
+    <row r="9">
       <c r="A9" s="640" t="s">
         <v>60</v>
       </c>
@@ -6088,7 +6088,7 @@
       <c r="R10" s="506"/>
       <c r="S10" s="505"/>
     </row>
-    <row r="11" ht="15">
+    <row r="11">
       <c r="A11" s="640" t="s">
         <v>60</v>
       </c>
@@ -6140,7 +6140,7 @@
       <c r="R12" s="506"/>
       <c r="S12" s="505"/>
     </row>
-    <row r="13" ht="15">
+    <row r="13">
       <c r="A13" s="640" t="s">
         <v>60</v>
       </c>
@@ -6192,7 +6192,7 @@
       <c r="R14" s="506"/>
       <c r="S14" s="505"/>
     </row>
-    <row r="15" ht="15">
+    <row r="15">
       <c r="A15" s="640" t="s">
         <v>60</v>
       </c>
@@ -6244,7 +6244,7 @@
       <c r="R16" s="506"/>
       <c r="S16" s="505"/>
     </row>
-    <row r="17" ht="15">
+    <row r="17">
       <c r="A17" s="640" t="s">
         <v>15</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="R17" s="506"/>
       <c r="S17" s="505"/>
     </row>
-    <row r="18" ht="15">
+    <row r="18">
       <c r="A18" s="721"/>
       <c r="B18" s="722"/>
       <c r="C18" s="733"/>
@@ -6298,7 +6298,7 @@
       <c r="R18" s="506"/>
       <c r="S18" s="505"/>
     </row>
-    <row r="19" ht="15">
+    <row r="19">
       <c r="A19" s="640" t="s">
         <v>107</v>
       </c>
@@ -6329,7 +6329,7 @@
       <c r="R19" s="506"/>
       <c r="S19" s="505"/>
     </row>
-    <row r="20" ht="15">
+    <row r="20">
       <c r="A20" s="721"/>
       <c r="B20" s="763"/>
       <c r="C20" s="739"/>
@@ -6352,7 +6352,7 @@
       <c r="R20" s="506"/>
       <c r="S20" s="505"/>
     </row>
-    <row r="21" ht="15">
+    <row r="21">
       <c r="A21" s="640" t="s">
         <v>15</v>
       </c>
@@ -6404,7 +6404,7 @@
       <c r="R22" s="506"/>
       <c r="S22" s="505"/>
     </row>
-    <row r="23" ht="15">
+    <row r="23">
       <c r="A23" s="640" t="s">
         <v>107</v>
       </c>
@@ -6456,7 +6456,7 @@
       <c r="R24" s="506"/>
       <c r="S24" s="505"/>
     </row>
-    <row r="25" ht="15">
+    <row r="25">
       <c r="A25" s="740" t="s">
         <v>15</v>
       </c>
@@ -6508,7 +6508,7 @@
       <c r="R26" s="506"/>
       <c r="S26" s="505"/>
     </row>
-    <row r="27" ht="15">
+    <row r="27">
       <c r="A27" s="740" t="s">
         <v>15</v>
       </c>
@@ -6539,7 +6539,7 @@
       <c r="R27" s="506"/>
       <c r="S27" s="505"/>
     </row>
-    <row r="28" ht="15">
+    <row r="28">
       <c r="A28" s="743"/>
       <c r="B28" s="625"/>
       <c r="C28" s="814" t="s">
@@ -7012,6 +7012,7 @@
     <hyperlink ref="F33" display="creez-des-formulaires" r:id="rId68"/>
     <hyperlink ref="F4" display="creez-du-contenu-pour-chaque-langue" r:id="rId69"/>
     <hyperlink ref="F15" display="inserez-des-images" r:id="rId70"/>
+    <hyperlink ref="F2" display="creez-du-contenu-pour-chaque-langue" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
